--- a/rtl/Release/EATS_RTL8192_8812_R2.0_20190419/spec_2g.xlsx
+++ b/rtl/Release/EATS_RTL8192_8812_R2.0_20190419/spec_2g.xlsx
@@ -1074,8 +1074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>22</v>
@@ -1134,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>22</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <v>22</v>
@@ -1302,7 +1302,7 @@
         <v>19</v>
       </c>
       <c r="I11" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
@@ -1438,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="I17" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
         <v>103</v>
       </c>
       <c r="B74" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
